--- a/datamining/final_data/tfidf1966_nltk.xlsx
+++ b/datamining/final_data/tfidf1966_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY51"/>
+  <dimension ref="A1:GU51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,1100 +497,950 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
           <t>accomplished</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>behalf</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>communities</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>needs</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>relations</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>early</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>older</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>persons</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>able</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>educationally</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>prospective</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>providing</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>who</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>comparative</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>practices</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>preceptions</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>principals</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>superior</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>utilization</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>musically</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>college-age</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>daughter</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>her</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>mother</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>stay</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>why</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>writes</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>youth</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>correspond</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>friends</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>old</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>''</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>``</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>boo-boos</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>explain</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>nagc</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>tries</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>consulting</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>reviews</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>retrospect</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>cities</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>cultures</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>greater</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>london</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>thirteen-year-olds</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>twin</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>two</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>usa</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>psychological</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>climate</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>herself</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>identifies</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>boys</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>girls</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>childhood</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>fate</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>intuition</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>quarterly</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>concern</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>continuing</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>matter</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>pressurizing</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>'67</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>afford</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>experience</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>expo</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>good</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>awards</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>best</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>britannica</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>cash</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>elementary</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>encyclopedia</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>library</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>offer</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>attitude</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>seniors</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>divergency</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>heterogeneous</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>highly</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>perception</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>preadolescents</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>evaluation</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>prodigies</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>academic</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>actualization</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>preparation</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>suggested</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>survey</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>curiosity</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>discontinuities</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>montessori</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>preschooler</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>disturbed</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>emotionally</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>management</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>'s</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>annual</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>director</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>executive</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>1966</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>24-31</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>community</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>held</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>national</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>observance</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>october</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>week</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>13-16</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>april</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>association</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>board</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>inn</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>lamplighter</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>meeting</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>nebraska</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>omaha</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>thirteenth</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>conscience</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>back</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>comes</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>gillespie</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>haven</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>master</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>tunesmith</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>exceptional</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>include</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>which</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>governor</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>thoughts</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>abilities</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>basis</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>experimental</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>grouping</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>motivations</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>accelerate</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>acceleration</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>adults</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>view</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>assessing</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>human</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>f.</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>george</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>sculptor</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>yostel</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>message</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>scholastically</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>chemistry</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>limiting</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>being</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>non-existence</t>
         </is>
@@ -2204,96 +2054,6 @@
         <v>0</v>
       </c>
       <c r="GU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2320,25 +2080,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="N3" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2905,96 +2665,6 @@
         <v>0</v>
       </c>
       <c r="GU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3039,49 +2709,49 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.25</v>
       </c>
       <c r="W4" t="n">
         <v>0.3</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -3606,96 +3276,6 @@
         <v>0</v>
       </c>
       <c r="GU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3746,19 +3326,19 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -3770,34 +3350,34 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -4307,96 +3887,6 @@
         <v>0</v>
       </c>
       <c r="GU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4453,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -4483,16 +3973,16 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -4501,19 +3991,19 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -5008,96 +4498,6 @@
         <v>0</v>
       </c>
       <c r="GU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5196,19 +4596,19 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -5217,25 +4617,25 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -5709,96 +5109,6 @@
         <v>0</v>
       </c>
       <c r="GU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5870,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -5879,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -5912,61 +5222,61 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
         <v>0</v>
@@ -6410,96 +5720,6 @@
         <v>0</v>
       </c>
       <c r="GU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -6589,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -6643,13 +5863,13 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -6670,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
         <v>0</v>
@@ -7111,96 +6331,6 @@
         <v>0</v>
       </c>
       <c r="GU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7290,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -7353,25 +6483,25 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -7380,34 +6510,34 @@
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BQ10" t="n">
         <v>0</v>
@@ -7812,96 +6942,6 @@
         <v>0</v>
       </c>
       <c r="GU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8075,16 +7115,16 @@
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -8111,16 +7151,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -8513,96 +7553,6 @@
         <v>0</v>
       </c>
       <c r="GU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8788,22 +7738,22 @@
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BO12" t="n">
         <v>0</v>
@@ -8824,25 +7774,25 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
         <v>0</v>
@@ -9214,96 +8164,6 @@
         <v>0</v>
       </c>
       <c r="GU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9453,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AX13" t="n">
         <v>0</v>
@@ -9480,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
         <v>0</v>
@@ -9507,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="BQ13" t="n">
         <v>0</v>
@@ -9546,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
@@ -9915,96 +8775,6 @@
         <v>0</v>
       </c>
       <c r="GU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10214,13 +8984,13 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BT14" t="n">
         <v>0</v>
@@ -10253,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -10616,96 +9386,6 @@
         <v>0</v>
       </c>
       <c r="GU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10762,13 +9442,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -10924,10 +9604,10 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
@@ -10963,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -11317,96 +9997,6 @@
         <v>0</v>
       </c>
       <c r="GU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11463,13 +10053,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -11631,28 +10221,28 @@
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BY16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CB16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -11670,28 +10260,28 @@
         <v>0</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
         <v>0</v>
@@ -12018,96 +10608,6 @@
         <v>0</v>
       </c>
       <c r="GU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12164,13 +10664,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -12251,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -12278,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
@@ -12356,10 +10856,10 @@
         <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
@@ -12395,10 +10895,10 @@
         <v>0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
         <v>0</v>
@@ -12719,96 +11219,6 @@
         <v>0</v>
       </c>
       <c r="GU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12958,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -12985,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BG18" t="n">
         <v>0</v>
@@ -13063,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="CF18" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="CG18" t="n">
         <v>0</v>
@@ -13102,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="CT18" t="n">
         <v>0</v>
@@ -13420,96 +11830,6 @@
         <v>0</v>
       </c>
       <c r="GU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13560,19 +11880,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -13599,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -13620,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -13644,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
@@ -13767,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="CH19" t="n">
         <v>0</v>
@@ -13806,16 +12126,16 @@
         <v>0</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="CX19" t="n">
         <v>0</v>
@@ -14121,96 +12441,6 @@
         <v>0</v>
       </c>
       <c r="GU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14471,13 +12701,13 @@
         <v>0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="CI20" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CK20" t="n">
         <v>0</v>
@@ -14519,13 +12749,13 @@
         <v>0</v>
       </c>
       <c r="CX20" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="CY20" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="DA20" t="n">
         <v>0</v>
@@ -14822,96 +13052,6 @@
         <v>0</v>
       </c>
       <c r="GU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15181,13 +13321,13 @@
         <v>0</v>
       </c>
       <c r="CK21" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="CM21" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="CN21" t="n">
         <v>0</v>
@@ -15229,16 +13369,16 @@
         <v>0</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="DC21" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="DE21" t="n">
         <v>0</v>
@@ -15523,96 +13663,6 @@
         <v>0</v>
       </c>
       <c r="GU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15891,10 +13941,10 @@
         <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="CO22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -15942,19 +13992,19 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DG22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DH22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
         <v>0</v>
@@ -16224,96 +14274,6 @@
         <v>0</v>
       </c>
       <c r="GU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16358,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -16370,13 +14330,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -16598,19 +14558,19 @@
         <v>0</v>
       </c>
       <c r="CP23" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CR23" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CS23" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CT23" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CU23" t="n">
         <v>0</v>
@@ -16658,19 +14618,19 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DK23" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DL23" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DM23" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DN23" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DO23" t="n">
         <v>0</v>
@@ -16925,96 +14885,6 @@
         <v>0</v>
       </c>
       <c r="GU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17071,13 +14941,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -17140,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -17275,10 +15145,10 @@
         <v>0</v>
       </c>
       <c r="CH24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CI24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CJ24" t="n">
         <v>0</v>
@@ -17314,25 +15184,25 @@
         <v>0</v>
       </c>
       <c r="CU24" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CV24" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CW24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CX24" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="CY24" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="CZ24" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DA24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DB24" t="n">
         <v>0</v>
@@ -17374,31 +15244,31 @@
         <v>0</v>
       </c>
       <c r="DO24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DQ24" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DR24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DS24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DT24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DU24" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DV24" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DW24" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="DX24" t="n">
         <v>0</v>
@@ -17626,96 +15496,6 @@
         <v>0</v>
       </c>
       <c r="GU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17784,22 +15564,22 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -17808,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -18036,28 +15816,28 @@
         <v>0</v>
       </c>
       <c r="DB25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DC25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DD25" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="DE25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DF25" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="DG25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DH25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DI25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DJ25" t="n">
         <v>0</v>
@@ -18099,31 +15879,31 @@
         <v>0</v>
       </c>
       <c r="DW25" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="DX25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="DY25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="DZ25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="EA25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="EB25" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="EC25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="ED25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="EE25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="EF25" t="n">
         <v>0</v>
@@ -18327,96 +16107,6 @@
         <v>0</v>
       </c>
       <c r="GU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18473,13 +16163,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -18566,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AX26" t="n">
         <v>0</v>
@@ -18593,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BG26" t="n">
         <v>0</v>
@@ -18761,16 +16451,16 @@
         <v>0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DK26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DL26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DM26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DN26" t="n">
         <v>0</v>
@@ -18827,16 +16517,16 @@
         <v>0</v>
       </c>
       <c r="EF26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EG26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EH26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EI26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EJ26" t="n">
         <v>0</v>
@@ -19028,96 +16718,6 @@
         <v>0</v>
       </c>
       <c r="GU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19174,13 +16774,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -19444,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="DD27" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="DE27" t="n">
         <v>0</v>
@@ -19474,19 +17074,19 @@
         <v>0</v>
       </c>
       <c r="DN27" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DO27" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DP27" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DQ27" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DR27" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DS27" t="n">
         <v>0</v>
@@ -19540,19 +17140,19 @@
         <v>0</v>
       </c>
       <c r="EJ27" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EK27" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EL27" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EM27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="EN27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="EO27" t="n">
         <v>0</v>
@@ -19729,96 +17329,6 @@
         <v>0</v>
       </c>
       <c r="GU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19896,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -19908,161 +17418,161 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB28" t="n">
         <v>0.41</v>
       </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB28" t="n">
-        <v>0</v>
-      </c>
       <c r="CC28" t="n">
         <v>0</v>
       </c>
@@ -20100,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="CO28" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CP28" t="n">
         <v>0</v>
@@ -20190,10 +17700,10 @@
         <v>0</v>
       </c>
       <c r="DS28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DT28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DU28" t="n">
         <v>0</v>
@@ -20256,10 +17766,10 @@
         <v>0</v>
       </c>
       <c r="EO28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EP28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EQ28" t="n">
         <v>0</v>
@@ -20430,96 +17940,6 @@
         <v>0</v>
       </c>
       <c r="GU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20576,13 +17996,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -20663,13 +18083,13 @@
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AV29" t="n">
         <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AX29" t="n">
         <v>0</v>
@@ -20690,13 +18110,13 @@
         <v>0</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BE29" t="n">
         <v>0</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BG29" t="n">
         <v>0</v>
@@ -20852,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="DF29" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DG29" t="n">
         <v>0</v>
@@ -20897,10 +18317,10 @@
         <v>0</v>
       </c>
       <c r="DU29" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="DV29" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="DW29" t="n">
         <v>0</v>
@@ -20918,7 +18338,7 @@
         <v>0</v>
       </c>
       <c r="EB29" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EC29" t="n">
         <v>0</v>
@@ -20963,10 +18383,10 @@
         <v>0</v>
       </c>
       <c r="EQ29" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="ER29" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="ES29" t="n">
         <v>0</v>
@@ -21131,96 +18551,6 @@
         <v>0</v>
       </c>
       <c r="GU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21277,13 +18607,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -21310,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -21358,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -21385,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BC30" t="n">
         <v>0</v>
@@ -21604,13 +18934,13 @@
         <v>0</v>
       </c>
       <c r="DW30" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DX30" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DY30" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DZ30" t="n">
         <v>0</v>
@@ -21670,13 +19000,13 @@
         <v>0</v>
       </c>
       <c r="ES30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="ET30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EU30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EV30" t="n">
         <v>0</v>
@@ -21832,96 +19162,6 @@
         <v>0</v>
       </c>
       <c r="GU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21978,13 +19218,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -22287,10 +19527,10 @@
         <v>0</v>
       </c>
       <c r="DQ31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DR31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DS31" t="n">
         <v>0</v>
@@ -22314,10 +19554,10 @@
         <v>0</v>
       </c>
       <c r="DZ31" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EA31" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EB31" t="n">
         <v>0</v>
@@ -22353,10 +19593,10 @@
         <v>0</v>
       </c>
       <c r="EM31" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EN31" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EO31" t="n">
         <v>0</v>
@@ -22380,10 +19620,10 @@
         <v>0</v>
       </c>
       <c r="EV31" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="EW31" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="EX31" t="n">
         <v>0</v>
@@ -22533,96 +19773,6 @@
         <v>0</v>
       </c>
       <c r="GU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22679,13 +19829,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -23021,13 +20171,13 @@
         <v>0</v>
       </c>
       <c r="EB32" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="EC32" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="ED32" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="EE32" t="n">
         <v>0</v>
@@ -23087,13 +20237,13 @@
         <v>0</v>
       </c>
       <c r="EX32" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="EY32" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="EZ32" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="FA32" t="n">
         <v>0</v>
@@ -23234,96 +20384,6 @@
         <v>0</v>
       </c>
       <c r="GU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23380,13 +20440,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -23641,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="DA33" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DB33" t="n">
         <v>0</v>
@@ -23701,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="DU33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="DV33" t="n">
         <v>0</v>
@@ -23731,16 +20791,16 @@
         <v>0</v>
       </c>
       <c r="EE33" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EF33" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EG33" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EH33" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EI33" t="n">
         <v>0</v>
@@ -23797,19 +20857,19 @@
         <v>0</v>
       </c>
       <c r="FA33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FB33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FC33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FD33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FE33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FF33" t="n">
         <v>0</v>
@@ -23935,96 +20995,6 @@
         <v>0</v>
       </c>
       <c r="GU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24075,19 +21045,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -24444,10 +21414,10 @@
         <v>0</v>
       </c>
       <c r="EI34" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="EJ34" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="EK34" t="n">
         <v>0</v>
@@ -24513,10 +21483,10 @@
         <v>0</v>
       </c>
       <c r="FF34" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="FG34" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="FH34" t="n">
         <v>0</v>
@@ -24636,96 +21606,6 @@
         <v>0</v>
       </c>
       <c r="GU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24935,13 +21815,13 @@
         <v>0</v>
       </c>
       <c r="BQ35" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BR35" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BS35" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BT35" t="n">
         <v>0</v>
@@ -24974,13 +21854,13 @@
         <v>0</v>
       </c>
       <c r="CD35" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CE35" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CF35" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CG35" t="n">
         <v>0</v>
@@ -25337,96 +22217,6 @@
         <v>0</v>
       </c>
       <c r="GU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25753,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="DD36" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DE36" t="n">
         <v>0</v>
@@ -25852,19 +22642,19 @@
         <v>0</v>
       </c>
       <c r="EK36" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EL36" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EM36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EN36" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EO36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP36" t="n">
         <v>0</v>
@@ -25921,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="FH36" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FI36" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FJ36" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="FK36" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FL36" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="FM36" t="n">
         <v>0</v>
@@ -26038,96 +22828,6 @@
         <v>0</v>
       </c>
       <c r="GU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26178,19 +22878,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -26508,10 +23208,10 @@
         <v>0</v>
       </c>
       <c r="DV37" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DW37" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="DX37" t="n">
         <v>0</v>
@@ -26568,31 +23268,31 @@
         <v>0</v>
       </c>
       <c r="EP37" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="EQ37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="ER37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="ES37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="ET37" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="EU37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="EV37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="EW37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="EX37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="EY37" t="n">
         <v>0</v>
@@ -26637,34 +23337,34 @@
         <v>0</v>
       </c>
       <c r="FM37" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="FN37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FO37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FP37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FQ37" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="FR37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FS37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FT37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FU37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FV37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FW37" t="n">
         <v>0</v>
@@ -26739,96 +23439,6 @@
         <v>0</v>
       </c>
       <c r="GU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26885,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -26972,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="AU38" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AV38" t="n">
         <v>0</v>
@@ -26999,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="BE38" t="n">
         <v>0</v>
@@ -27155,7 +23765,7 @@
         <v>0</v>
       </c>
       <c r="DD38" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="DE38" t="n">
         <v>0</v>
@@ -27257,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="EL38" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="EM38" t="n">
         <v>0</v>
       </c>
       <c r="EN38" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="EO38" t="n">
         <v>0</v>
       </c>
       <c r="EP38" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="EQ38" t="n">
         <v>0</v>
@@ -27281,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="ET38" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="EU38" t="n">
         <v>0</v>
@@ -27296,49 +23906,49 @@
         <v>0</v>
       </c>
       <c r="EY38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="EZ38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FA38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FB38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FC38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FD38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FE38" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="FF38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FG38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FH38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FI38" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="FJ38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="FK38" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="FL38" t="n">
         <v>0</v>
       </c>
       <c r="FM38" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="FN38" t="n">
         <v>0</v>
@@ -27350,7 +23960,7 @@
         <v>0</v>
       </c>
       <c r="FQ38" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="FR38" t="n">
         <v>0</v>
@@ -27368,40 +23978,40 @@
         <v>0</v>
       </c>
       <c r="FW38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="FX38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="FY38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="FZ38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GA38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GB38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GC38" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="GD38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GE38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GF38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GG38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GH38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="GI38" t="n">
         <v>0</v>
@@ -27440,96 +24050,6 @@
         <v>0</v>
       </c>
       <c r="GU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28033,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="FK39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL39" t="n">
         <v>0</v>
@@ -28105,7 +24625,7 @@
         <v>0</v>
       </c>
       <c r="GI39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GJ39" t="n">
         <v>0</v>
@@ -28141,96 +24661,6 @@
         <v>0</v>
       </c>
       <c r="GU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28737,22 +25167,22 @@
         <v>0</v>
       </c>
       <c r="FL40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FM40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FN40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FO40" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FP40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FQ40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FR40" t="n">
         <v>0</v>
@@ -28809,25 +25239,25 @@
         <v>0</v>
       </c>
       <c r="GJ40" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="GK40" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="GL40" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="GM40" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="GN40" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="GO40" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="GP40" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="GQ40" t="n">
         <v>0</v>
@@ -28842,96 +25272,6 @@
         <v>0</v>
       </c>
       <c r="GU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28988,13 +25328,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -29057,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AP41" t="n">
         <v>0</v>
@@ -29126,7 +25466,7 @@
         <v>0</v>
       </c>
       <c r="BL41" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BM41" t="n">
         <v>0</v>
@@ -29456,16 +25796,16 @@
         <v>0</v>
       </c>
       <c r="FR41" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FS41" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FT41" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FU41" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FV41" t="n">
         <v>0</v>
@@ -29531,108 +25871,18 @@
         <v>0</v>
       </c>
       <c r="GQ41" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GR41" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GS41" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GT41" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GU41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29722,7 +25972,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -30058,7 +26308,7 @@
         <v>0</v>
       </c>
       <c r="EK42" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="EL42" t="n">
         <v>0</v>
@@ -30127,7 +26377,7 @@
         <v>0</v>
       </c>
       <c r="FH42" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FI42" t="n">
         <v>0</v>
@@ -30169,13 +26419,13 @@
         <v>0</v>
       </c>
       <c r="FV42" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="FW42" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="FX42" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="FY42" t="n">
         <v>0</v>
@@ -30244,96 +26494,6 @@
         <v>0</v>
       </c>
       <c r="GU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV42" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GW42" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GX42" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30639,7 +26799,7 @@
         <v>0</v>
       </c>
       <c r="CW43" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CX43" t="n">
         <v>0</v>
@@ -30699,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="DQ43" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DR43" t="n">
         <v>0</v>
@@ -30879,19 +27039,19 @@
         <v>0</v>
       </c>
       <c r="FY43" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FZ43" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="GA43" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="GB43" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="GC43" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="GD43" t="n">
         <v>0</v>
@@ -30945,96 +27105,6 @@
         <v>0</v>
       </c>
       <c r="GU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY43" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GZ43" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HA43" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HB43" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HC43" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31361,7 +27431,7 @@
         <v>0</v>
       </c>
       <c r="DD44" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DE44" t="n">
         <v>0</v>
@@ -31595,16 +27665,16 @@
         <v>0</v>
       </c>
       <c r="GD44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GE44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GF44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GG44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GH44" t="n">
         <v>0</v>
@@ -31646,96 +27716,6 @@
         <v>0</v>
       </c>
       <c r="GU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD44" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HE44" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HF44" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HG44" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32308,13 +28288,13 @@
         <v>0</v>
       </c>
       <c r="GH45" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="GI45" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="GJ45" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="GK45" t="n">
         <v>0</v>
@@ -32347,96 +28327,6 @@
         <v>0</v>
       </c>
       <c r="GU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH45" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="HI45" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="HJ45" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="HK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33018,16 +28908,16 @@
         <v>0</v>
       </c>
       <c r="GK46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GL46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GM46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GN46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GO46" t="n">
         <v>0</v>
@@ -33048,96 +28938,6 @@
         <v>0</v>
       </c>
       <c r="GU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HL46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HM46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HN46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33194,19 +28994,19 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -33221,13 +29021,13 @@
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -33236,7 +29036,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -33257,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
@@ -33269,7 +29069,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -33296,7 +29096,7 @@
         <v>0</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BA47" t="n">
         <v>0</v>
@@ -33443,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="CW47" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CX47" t="n">
         <v>0</v>
@@ -33731,10 +29531,10 @@
         <v>0</v>
       </c>
       <c r="GO47" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="GP47" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="GQ47" t="n">
         <v>0</v>
@@ -33749,96 +29549,6 @@
         <v>0</v>
       </c>
       <c r="GU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO47" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HP47" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HQ47" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HR47" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33856,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -33889,19 +29599,19 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -33928,7 +29638,7 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -34438,108 +30148,18 @@
         <v>0</v>
       </c>
       <c r="GQ48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GR48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GS48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GT48" t="n">
         <v>0</v>
       </c>
       <c r="GU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS48" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HT48" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HU48" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HV48" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34749,13 +30369,13 @@
         <v>0</v>
       </c>
       <c r="BQ49" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BR49" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BS49" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BT49" t="n">
         <v>0</v>
@@ -34788,13 +30408,13 @@
         <v>0</v>
       </c>
       <c r="CD49" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CE49" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CF49" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CG49" t="n">
         <v>0</v>
@@ -35151,96 +30771,6 @@
         <v>0</v>
       </c>
       <c r="GU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35756,7 +31286,7 @@
         <v>0</v>
       </c>
       <c r="FO50" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="FP50" t="n">
         <v>0</v>
@@ -35831,7 +31361,7 @@
         <v>0</v>
       </c>
       <c r="GN50" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GO50" t="n">
         <v>0</v>
@@ -35849,99 +31379,9 @@
         <v>0</v>
       </c>
       <c r="GT50" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="GU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW50" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="HX50" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="HY50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35992,19 +31432,19 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -36268,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="DD51" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DE51" t="n">
         <v>0</v>
@@ -36553,97 +31993,7 @@
         <v>0</v>
       </c>
       <c r="GU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV51" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX51" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY51" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX51" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY51" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
